--- a/data/trans_camb/P35A_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P35A_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,86</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 10,3</t>
+          <t>-2,43; 8,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 9,38</t>
+          <t>-2,09; 11,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 11,26</t>
+          <t>0,11; 14,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 11,64</t>
+          <t>-4,0; 5,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 8,85</t>
+          <t>-2,93; 7,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 8,81</t>
+          <t>-2,23; 9,01</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 5,64</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 7,5</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 8,94</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>56,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>69,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>59,86%</t>
+          <t>119,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>72,74%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>41,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>53,8%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34,09%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>56,98%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>89,11%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,26; 135,23</t>
+          <t>-35,57; 232,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 128,27</t>
+          <t>-35,93; 296,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,68; 273,16</t>
+          <t>-9,19; 366,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 314,03</t>
+          <t>-57,97; 159,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 139,68</t>
+          <t>-37,74; 251,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 146,34</t>
+          <t>-39,32; 268,76</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-28,49; 145,0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 207,3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4,3; 228,48</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,67</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,53</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>4,12</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,25</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5,04</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 14,24</t>
+          <t>-5,71; 11,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 18,04</t>
+          <t>-7,19; 10,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 27,1</t>
+          <t>-3,34; 15,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 7,12</t>
+          <t>-2,09; 5,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 15,17</t>
+          <t>-3,15; 4,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 12,74</t>
+          <t>0,17; 8,96</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 7,01</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 5,83</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 10,31</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>44,77%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>183,11%</t>
+          <t>49,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>50,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>58,99%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>147,07%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>34,19%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>76,41%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 140,36</t>
+          <t>-39,14; 170,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 187,03</t>
+          <t>-49,1; 144,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,21; 1120,25</t>
+          <t>-26,34; 219,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-83,58; 329,32</t>
+          <t>-57,91; 495,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 171,69</t>
+          <t>-78,07; 473,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 160,39</t>
+          <t>-7,98; 803,57</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-27,23; 155,88</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-38,72; 126,13</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 218,27</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,35</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,39</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 22,63</t>
+          <t>-15,7; 12,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 24,83</t>
+          <t>-13,54; 20,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 17,59</t>
+          <t>-19,49; 9,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-33,19; 4,23</t>
+          <t>-14,56; 12,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 15,5</t>
+          <t>-19,22; 3,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 14,36</t>
+          <t>-13,77; 14,18</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-11,77; 8,93</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-11,96; 9,67</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-11,14; 8,98</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>-41,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>50,33%</t>
+          <t>44,69%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-16,76%</t>
+          <t>-31,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-72,11%</t>
+          <t>-7,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>-67,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>16,79%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-22,53%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-16,05%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-6,06%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-79,61; 634,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,88; 640,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,47; 184,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-67,21; 200,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-87,03; 322,48</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-86,6; 472,56</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-78,31; 267,99</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,35</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 10,22</t>
+          <t>-2,5; 6,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 10,14</t>
+          <t>-1,85; 8,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 12,94</t>
+          <t>0,43; 10,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 6,93</t>
+          <t>-2,18; 4,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 9,31</t>
+          <t>-2,4; 3,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 7,84</t>
+          <t>-0,13; 6,67</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 4,38</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 4,77</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 7,75</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>73,58%</t>
+          <t>65,22%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>70,22%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>29,11%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>69,54%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 97,49</t>
+          <t>-23,91; 113,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 96,77</t>
+          <t>-18,72; 128,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 247,47</t>
+          <t>4,03; 175,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 144,19</t>
+          <t>-39,06; 124,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,24; 106,97</t>
+          <t>-40,58; 125,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 89,18</t>
+          <t>-4,22; 200,5</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-15,27; 85,55</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-12,88; 94,42</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>15,17; 146,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
